--- a/biology/Mycologie/Teloschistaceae/Teloschistaceae.xlsx
+++ b/biology/Mycologie/Teloschistaceae/Teloschistaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Teloschistaceae (Téloschistacées) sont des champignons lichénisés (lichens) dont le thalle est généralement foliacé ou fruticuleux ; l'un des plus célèbres représentants de la famille est le genre Xanthoria. Beaucoup d'entre eux sont de couleur jaune, rouge ou orange en raison de la présence de pariétine, substance cacactéristique de l'ordre des Teloschistales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Outline of Ascomycota — 2009[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Outline of Ascomycota — 2009 :
 Caloplaca Th. Fr.
 Cephalophysis (Hertel) H. Kilias
 Fulgensia Massal. &amp; De Not.
